--- a/Documents/Files_Block_Diagram.xlsx
+++ b/Documents/Files_Block_Diagram.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F98BFA-9FEC-436D-8B9E-CA6E3A9B0970}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF2AC4C-024E-4E5C-9832-5DA013D6AECB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29730" yWindow="2265" windowWidth="20460" windowHeight="12015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,9 +20,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>void LCD_Init_HW(void);</t>
+  </si>
+  <si>
+    <t>void LCD_Configure(void);</t>
+  </si>
+  <si>
+    <t>void Set_Address (uint8_t Start_X, uint8_t End_X, uint8_t Start_Y, uint8_t End_Y);</t>
+  </si>
+  <si>
+    <t>HAL_StatusTypeDef HAL_SPI_Transmit(SPI_HandleTypeDef *hspi, uint8_t *pData, uint16_t Size, uint32_t Timeout);</t>
+  </si>
+  <si>
+    <t>HAL_StatusTypeDef HAL_SPI_Receive(SPI_HandleTypeDef *hspi, uint8_t *pData, uint16_t Size, uint32_t Timeout);</t>
+  </si>
+  <si>
+    <t>void MX_SPI2_Init(void);</t>
+  </si>
+  <si>
+    <t>LCD_Initialization()</t>
+  </si>
+  <si>
+    <t>Draw_Point(X, Y)</t>
+  </si>
+  <si>
+    <t>Fill_Display(Color)</t>
+  </si>
+  <si>
+    <t>LCD_Tools</t>
+  </si>
+  <si>
+    <t>LCD_HAL</t>
+  </si>
+  <si>
+    <t>void SPI_Send_Data_8bit(uint8_t *Data, uint16_t size);</t>
+  </si>
+  <si>
+    <t>void SPI_Send_Data_16bit(uint16_t *Data, uint16_t size);</t>
+  </si>
+  <si>
+    <t>void SPI_Send_Command(uint8_t *Data);</t>
+  </si>
+  <si>
+    <t>SPI_HAL</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>void Switch_SPI_Data_Size(uint8_t Data_Size)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29,13 +86,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,8 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2166,7 +2241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2175,4 +2250,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897D4EBB-321E-45E5-A03B-D7C04464815F}">
+  <dimension ref="B11:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="104.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>